--- a/data/supplementary S1.xlsx
+++ b/data/supplementary S1.xlsx
@@ -5,20 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yngong/my_repo/two_variable_gam/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yngong/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900FD6B6-4C1D-3C42-9915-1741F69438CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF49663D-5A7A-454B-9D1A-BD0D86CA8732}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{D9ABBCFF-4199-4FCF-A9BD-8376F1259B7A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="12340" xr2:uid="{D9ABBCFF-4199-4FCF-A9BD-8376F1259B7A}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="supplementary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
